--- a/api/ovz_template.xlsx
+++ b/api/ovz_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="25410" windowHeight="12015"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="25410" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="ОВЗ и инвалиды" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,24 @@
     <t>С нарушениями интеллекта (с умственной отсталостью)</t>
   </si>
   <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>П-прием</t>
+  </si>
+  <si>
+    <t>К - общее количество</t>
+  </si>
+  <si>
+    <t>В- выпуск</t>
+  </si>
+  <si>
     <r>
       <t>П</t>
     </r>
@@ -90,6 +108,8 @@
         <sz val="12"/>
         <color indexed="64"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>*</t>
     </r>
@@ -104,6 +124,8 @@
         <sz val="12"/>
         <color indexed="64"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>*</t>
     </r>
@@ -118,34 +140,18 @@
         <sz val="12"/>
         <color indexed="64"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>*</t>
     </r>
-  </si>
-  <si>
-    <t>П</t>
-  </si>
-  <si>
-    <t>К</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>П-прием</t>
-  </si>
-  <si>
-    <t>К - общее количество</t>
-  </si>
-  <si>
-    <t>В- выпуск</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,52 +159,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="64"/>
-      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color indexed="64"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -352,27 +369,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -383,32 +436,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,38 +466,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,535 +705,537 @@
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.85546875" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="2" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-    </row>
-    <row r="6" spans="1:28" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+    </row>
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="29"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="5" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="33"/>
+    </row>
+    <row r="7" spans="1:28" s="3" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17" t="s">
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17" t="s">
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17" t="s">
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17" t="s">
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="19" t="s">
+      <c r="X7" s="34"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-    </row>
-    <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="9" t="s">
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+    </row>
+    <row r="8" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="O8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="P8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="Q8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18">
+        <v>3</v>
+      </c>
+      <c r="D9" s="18">
+        <v>4</v>
+      </c>
+      <c r="E9" s="18">
+        <v>5</v>
+      </c>
+      <c r="F9" s="18">
+        <v>6</v>
+      </c>
+      <c r="G9" s="18">
+        <v>7</v>
+      </c>
+      <c r="H9" s="18">
+        <v>8</v>
+      </c>
+      <c r="I9" s="18">
+        <v>9</v>
+      </c>
+      <c r="J9" s="18">
+        <v>10</v>
+      </c>
+      <c r="K9" s="18">
+        <v>11</v>
+      </c>
+      <c r="L9" s="18">
+        <v>12</v>
+      </c>
+      <c r="M9" s="18">
+        <v>13</v>
+      </c>
+      <c r="N9" s="18">
+        <v>14</v>
+      </c>
+      <c r="O9" s="18">
+        <v>15</v>
+      </c>
+      <c r="P9" s="18">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>17</v>
+      </c>
+      <c r="R9" s="18">
+        <v>18</v>
+      </c>
+      <c r="S9" s="18">
+        <v>19</v>
+      </c>
+      <c r="T9" s="18">
+        <v>20</v>
+      </c>
+      <c r="U9" s="18">
+        <v>21</v>
+      </c>
+      <c r="V9" s="18">
+        <v>22</v>
+      </c>
+      <c r="W9" s="18">
         <v>23</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="X9" s="18">
         <v>24</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="Y9" s="18">
         <v>25</v>
       </c>
-      <c r="Q8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB8" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4">
-        <v>7</v>
-      </c>
-      <c r="H9" s="4">
-        <v>8</v>
-      </c>
-      <c r="I9" s="4">
-        <v>9</v>
-      </c>
-      <c r="J9" s="4">
-        <v>10</v>
-      </c>
-      <c r="K9" s="4">
-        <v>11</v>
-      </c>
-      <c r="L9" s="4">
-        <v>12</v>
-      </c>
-      <c r="M9" s="4">
-        <v>13</v>
-      </c>
-      <c r="N9" s="4">
-        <v>14</v>
-      </c>
-      <c r="O9" s="4">
-        <v>15</v>
-      </c>
-      <c r="P9" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>17</v>
-      </c>
-      <c r="R9" s="4">
-        <v>18</v>
-      </c>
-      <c r="S9" s="4">
-        <v>19</v>
-      </c>
-      <c r="T9" s="4">
-        <v>20</v>
-      </c>
-      <c r="U9" s="4">
-        <v>21</v>
-      </c>
-      <c r="V9" s="4">
-        <v>22</v>
-      </c>
-      <c r="W9" s="4">
-        <v>23</v>
-      </c>
-      <c r="X9" s="4">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="18">
         <v>26</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="18">
         <v>27</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9" s="18">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-    </row>
-    <row r="11" spans="1:28" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-    </row>
-    <row r="12" spans="1:28" s="12" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-    </row>
-    <row r="13" spans="1:28" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-    </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" ht="41.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
+    <row r="10" spans="1:28" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+    </row>
+    <row r="13" spans="1:28" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+    </row>
+    <row r="14" spans="1:28" s="3" customFormat="1" ht="41.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
     </row>
     <row r="16" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1255,8 +1264,8 @@
       <c r="AB17" s="15"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1285,8 +1294,8 @@
       <c r="AB18" s="15"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -1315,8 +1324,8 @@
       <c r="AB19" s="15"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1345,8 +1354,8 @@
       <c r="AB20" s="15"/>
     </row>
     <row r="21" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1376,17 +1385,17 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1409,6 +1418,6 @@
     <mergeCell ref="Z7:AB7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>